--- a/analysis/xlsx/연도별_지역별_판매량.xlsx
+++ b/analysis/xlsx/연도별_지역별_판매량.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>년도</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>지역</t>
   </si>
@@ -25,7 +22,19 @@
     <t>공급가액</t>
   </si>
   <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
     <t>고성군</t>
+  </si>
+  <si>
+    <t>예산군</t>
+  </si>
+  <si>
+    <t>당진시</t>
+  </si>
+  <si>
+    <t>포항시</t>
   </si>
 </sst>
 </file>
@@ -383,76 +392,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2024</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>59846000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>338535000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>213145000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2023</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>209620000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>194215000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>107505000</v>
+      <c r="B3">
+        <v>45416000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>30220000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>25676000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>22797000</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/xlsx/연도별_지역별_판매량.xlsx
+++ b/analysis/xlsx/연도별_지역별_판매량.xlsx
@@ -22,19 +22,19 @@
     <t>공급가액</t>
   </si>
   <si>
-    <t>서울특별시</t>
+    <t>청양군</t>
   </si>
   <si>
     <t>고성군</t>
   </si>
   <si>
-    <t>예산군</t>
-  </si>
-  <si>
-    <t>당진시</t>
-  </si>
-  <si>
-    <t>포항시</t>
+    <t>강진군</t>
+  </si>
+  <si>
+    <t>영천시</t>
+  </si>
+  <si>
+    <t>증평군</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>59846000</v>
+        <v>42351000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>45416000</v>
+        <v>39647000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>30220000</v>
+        <v>38252000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>25676000</v>
+        <v>24031100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -443,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22797000</v>
+        <v>23881000</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/xlsx/연도별_지역별_판매량.xlsx
+++ b/analysis/xlsx/연도별_지역별_판매량.xlsx
@@ -34,26 +34,26 @@
     <t>전체</t>
   </si>
   <si>
-    <t>권선구</t>
-  </si>
-  <si>
-    <t>기흥구</t>
-  </si>
-  <si>
-    <t>남구</t>
-  </si>
-  <si>
-    <t>단원구</t>
-  </si>
-  <si>
-    <t>덕양구</t>
-  </si>
-  <si>
-    <t>권선구 - 공급가액: 14803344900, 예측 공급가액: 14964957000
-기흥구 - 공급가액: 14803344900, 예측 공급가액: 14957286480
-남구 - 공급가액: 14803344900, 예측 공급가액: 14957153100
-단원구 - 공급가액: 14803344900, 예측 공급가액: 15016089600
-덕양구 - 공급가액: 14803344900, 예측 공급가액: 15049503900</t>
+    <t>산청군</t>
+  </si>
+  <si>
+    <t>군포시</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구</t>
+  </si>
+  <si>
+    <t>정선군</t>
+  </si>
+  <si>
+    <t>서울특별시 동작구</t>
+  </si>
+  <si>
+    <t>산청군 - 공급가액: 138167000, 예측 공급가액: 188481100
+군포시 - 공급가액: 128976000, 예측 공급가액: 178421000
+서울특별시 종로구 - 공급가액: 112926000, 예측 공급가액: 160561200
+정선군 - 공급가액: 99999000, 예측 공급가액: 146796200
+서울특별시 동작구 - 공급가액: 95206600, 예측 공급가액: 139105940</t>
   </si>
 </sst>
 </file>
@@ -442,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>14803344900</v>
+        <v>138167000</v>
       </c>
       <c r="D2">
-        <v>14964957000</v>
+        <v>188481100</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -459,10 +459,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>14803344900</v>
+        <v>128976000</v>
       </c>
       <c r="D3">
-        <v>14957286480</v>
+        <v>178421000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -473,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>14803344900</v>
+        <v>112926000</v>
       </c>
       <c r="D4">
-        <v>14957153100</v>
+        <v>160561200</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -487,10 +487,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>14803344900</v>
+        <v>99999000</v>
       </c>
       <c r="D5">
-        <v>15016089600</v>
+        <v>146796200</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -501,10 +501,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>14803344900</v>
+        <v>95206600</v>
       </c>
       <c r="D6">
-        <v>15049503900</v>
+        <v>139105940</v>
       </c>
     </row>
   </sheetData>
